--- a/Example/Dry weight.xlsx
+++ b/Example/Dry weight.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>131021_01_WT1</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>131021_36_Unknown8_06</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -449,299 +455,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0.22440476200000001</v>
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.19836309499999999</v>
+        <v>0.22440476200000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.20550595199999999</v>
+        <v>0.19836309499999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.19761904799999999</v>
+        <v>0.20550595199999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.219642857</v>
+        <v>0.19761904799999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.21264880999999999</v>
+        <v>0.219642857</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.19985119000000001</v>
+        <v>0.21264880999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.21488095199999999</v>
+        <v>0.19985119000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.195238095</v>
+        <v>0.21488095199999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.196279762</v>
+        <v>0.195238095</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.21875</v>
+        <v>0.196279762</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.20565476199999999</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>0.20491071399999999</v>
+        <v>0.20565476199999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0.217559524</v>
+        <v>0.20491071399999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0.188095238</v>
+        <v>0.217559524</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0.20744047600000001</v>
+        <v>0.188095238</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0.180059524</v>
+        <v>0.20744047600000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0.22485119000000001</v>
+        <v>0.180059524</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0.210119048</v>
+        <v>0.22485119000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.19181547600000001</v>
+        <v>0.210119048</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>0.17440476199999999</v>
+        <v>0.19181547600000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>0.163244048</v>
+        <v>0.17440476199999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>0.18333333299999999</v>
+        <v>0.163244048</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0.19732142899999999</v>
+        <v>0.18333333299999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>0.211309524</v>
+        <v>0.19732142899999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>0.16666666699999999</v>
+        <v>0.211309524</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>0.19761904799999999</v>
+        <v>0.16666666699999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>0.202827381</v>
+        <v>0.19761904799999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>0.24032738100000001</v>
+        <v>0.202827381</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0.19226190500000001</v>
+        <v>0.24032738100000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>0.18973214299999999</v>
+        <v>0.19226190500000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>0.212053571</v>
+        <v>0.18973214299999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>0.18958333299999999</v>
+        <v>0.212053571</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>0.22083333299999999</v>
+        <v>0.18958333299999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>0.179166667</v>
+        <v>0.22083333299999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.179166667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.20803571400000001</v>
       </c>
     </row>
